--- a/data/growth medium.xlsx
+++ b/data/growth medium.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\penicilin\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9130D841-32B6-48AD-8BF5-DB267934A924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0892B7E-5522-4844-9128-15835820A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,6 +546,10 @@
       </c>
       <c r="C12" t="s">
         <v>11</v>
+      </c>
+      <c r="D12">
+        <f>B13/C8</f>
+        <v>1.6086956521739131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
